--- a/ballots/2013-09 DSTU/QA/FMG QA Summary - outstanding issues.xlsx
+++ b/ballots/2013-09 DSTU/QA/FMG QA Summary - outstanding issues.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1545" windowWidth="37395" windowHeight="15465"/>
+    <workbookView xWindow="720" yWindow="1545" windowWidth="37395" windowHeight="15465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="For future consideration" sheetId="1" r:id="rId1"/>
-    <sheet name="For Immediate Consideration" sheetId="2" r:id="rId2"/>
+    <sheet name="Consideration at San Antonio" sheetId="2" r:id="rId2"/>
     <sheet name="Editorial Work post San Antonio" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t xml:space="preserve">Severely disagree with the disposition here. We (Lantana) have done preliminary analysis and disagree with the findings of FMG. It is currently not possible in our opinion to profile FHIR to meet even basic CDA requirements, not to mention those of Consolidated CDA. FHIR documents are too restrictive in some areas (composition/instant vs ClinicalDocument/effectiveTime), to ambiguous in others (where is the section title stored, and is it even part of the narrative; no clear way to create sections consisting only of narrative; where is the default stylesheet for rendering FHIR documents that is required to meet basic human readability requirements?). In light of this, I suggest that FHIR undergo another round of balloting, or at a minimum the section on FHIR documents be moved to the status of an experimental appendix and flagged as preliminary until such time as the FHIR group can reconcile the incompatibilities with Structured Documents. </t>
-  </si>
-  <si>
-    <t>See below for some specific line items associated with this. After reading them:</t>
   </si>
   <si>
     <t>http://www.hl7.org/implement/standards/fhir/documents.html#presentation</t>
@@ -512,6 +509,15 @@
   </si>
   <si>
     <t>I pounded on IHE as *hard* as I could on this, and got nothing. Grrr. What we have is as good as we can get. Continue to try to improve this in the future</t>
+  </si>
+  <si>
+    <t>See below for some specific line items associated with this. After reading them. We should:
+1. relax the constraint on instant
+2. resolve the questions around section.title
+3. make the CDA people a stylesheet
+4. make the status of this explicit (it's not now)
+No need to move something to an expreimental appendix when the spec is  a DSTU - we are clear about this already, though the front page should mention this once the DSTU is finalised. 
+I do not think this is actually severe disagreement</t>
   </si>
 </sst>
 </file>
@@ -914,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,18 +1080,18 @@
         <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="285" x14ac:dyDescent="0.25">
@@ -1093,113 +1099,113 @@
         <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1">
         <v>2.4</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1207,35 +1213,35 @@
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1247,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,7 +1285,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>20</v>
@@ -1288,7 +1294,7 @@
         <v>42</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -1342,7 +1348,7 @@
         <v>46</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="285" x14ac:dyDescent="0.25">
@@ -1350,23 +1356,23 @@
         <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="270" x14ac:dyDescent="0.25">
@@ -1374,98 +1380,98 @@
         <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1495,61 +1501,61 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/ballots/2013-09 DSTU/QA/FMG QA Summary - outstanding issues.xlsx
+++ b/ballots/2013-09 DSTU/QA/FMG QA Summary - outstanding issues.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1545" windowWidth="37395" windowHeight="15465" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="1605" windowWidth="29040" windowHeight="15405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="For future consideration" sheetId="1" r:id="rId1"/>
     <sheet name="Consideration at San Antonio" sheetId="2" r:id="rId2"/>
     <sheet name="Editorial Work post San Antonio" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Consideration at San Antonio'!$A$1:$J$12</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="146">
   <si>
     <t xml:space="preserve"> Basic Messaging Assumptions</t>
   </si>
@@ -470,14 +473,6 @@
     <t>I agree. Can have a fax and a phone</t>
   </si>
   <si>
-    <t xml:space="preserve">The rendering algorithm doesn't expose the title (section.code.display or text) for sections.  It should.  (And it should say something about heading levels being based on nesting within the section hierarchy) .  Suggest the following: "Applications SHOULD also include a title in front of each rendered section, using section.code.text if available or section.code.coding.display, if not.  Heading SHOULD reflect the nesting level of each section within the section hierarchy of the Composition." 
-</t>
-  </si>
-  <si>
-    <t>We definitely need to sort this out. I assumed that the seperation of title from narrative was a RIM legacy - it's never functional, so far as I know,  in CDA. So I assumed that the title would simply be part of the narrative of the resource. Of course, it would be good to say so explicitly- this would clarify. In fact, given that resources stand alone outside documents, this both argues that the title should be innately part of the narrative, and argues that it shouldn't - if that is, the title is used to establish context inside the document. But is that a good practice? I don't think so. I think we should say, for now, that title goes in the narrative, and we will work on this as we work on CCDA/FHIR).
-Note this means I disagree with Lloyds comment</t>
-  </si>
-  <si>
     <t>Need to clarify that Document/_search always returns a feed of atom feeds (and ensure that the atom description (XML and JSON) and schema support this.</t>
   </si>
   <si>
@@ -491,9 +486,6 @@
   </si>
   <si>
     <t>Tough, but necessary. No bright ideas</t>
-  </si>
-  <si>
-    <t>Profile definition needs a "distinct Profile.structure.name" constraint, since "#name"  is used as an external identifier. Something like count(distinct-values(//Profile/structure/name)) =count(//Profile/structure/name) ?</t>
   </si>
   <si>
     <t>When Observation.component used to exist, there was an example of how to represent a blood pressure (systolic + diastolic). Now there's none, anywhere. It would be really helpful for the FHIR spec to have, somewhere, a clear example of best practice for this very common task.</t>
@@ -519,12 +511,83 @@
 No need to move something to an expreimental appendix when the spec is  a DSTU - we are clear about this already, though the front page should mention this once the DSTU is finalised. 
 I do not think this is actually severe disagreement</t>
   </si>
+  <si>
+    <t>This doesn't seem to be critical to resolve prior to DSTU.  Implementers can use extensions in the interim and we can discuss whether this is properly part of the 80% later.</t>
+  </si>
+  <si>
+    <t>Inclusion of a stylesheet not required for DSTU publication</t>
+  </si>
+  <si>
+    <t>Will focus on discussion of detailed items below, not this one.</t>
+  </si>
+  <si>
+    <t>We need to introduce a system resource to allow maintaining a registry of system identifiers in a FHIR-like manner.  This will supersede the OID registry and will also support mapping between OIDs and URIs</t>
+  </si>
+  <si>
+    <t>Wed Q1/Q2 (Vocab/MnM)</t>
+  </si>
+  <si>
+    <t>Thur Q3 SD (time allowing)</t>
+  </si>
+  <si>
+    <t>Not scheduled</t>
+  </si>
+  <si>
+    <t>Thur Q3 SD</t>
+  </si>
+  <si>
+    <t>Thur Q3 SD (short)</t>
+  </si>
+  <si>
+    <t>Suggest adding the following wording: "HL7 will develop profiles in the future giving additional guidance on appropriate representation of clinical documents in general as well as specific types of clinical documents (e.g. CCDA)."</t>
+  </si>
+  <si>
+    <t>Tue Q1 PA</t>
+  </si>
+  <si>
+    <t>WGM Quarter</t>
+  </si>
+  <si>
+    <t>The ballot comment was misunderstood.  Conformance still needs to declare what search parameters will be supported.  However, Profile should be used to *define* search parameters - you want the search parameters to be able to be defined the same place you define the resource element or extension being searched on.</t>
+  </si>
+  <si>
+    <t>for San Antonio</t>
+  </si>
+  <si>
+    <t>Lloyd McKenzie</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Wed Q4 CGIT</t>
+  </si>
+  <si>
+    <t>Mon Q2 ITS</t>
+  </si>
+  <si>
+    <t>We definitely need to sort this out. I assumed that the seperation of title from narrative was a RIM legacy - it's never functional, so far as I know,  in CDA. So I assumed that the title would simply be part of the narrative of the resource. Of course, it would be good to say so explicitly- this would clarify. In fact, given that resources stand alone outside documents, this both argues that the title should be innately part of the narrative, and argues that it shouldn't - if that is, the title is used to establish context inside the document. But is that a good practice? I don't think so. I think we should say, for now, that title goes in the narrative, and we will work on this as we work on CCDA/FHIR).
+Note this means I disagree with Lloyds comment
+(Subsequent discussion led to agreement: titles can be different in different contexts and different documents referencing the same resources may require different titles for reasons of standardized labeling)</t>
+  </si>
+  <si>
+    <t>The rendering algorithm doesn't expose the title.  We need to add an explicit element for this and require that the rendering algorithm include the title if present.  As well, it needs to provide guidance about using the appropriate xhtml heading level based on section nesting (H1 = document title, H2=section title, H3 = sub-section title, etc.).  Finally, we need to add an explanation in the narrative section that heading levels in narrative content may be "shifted" down to reflect the context in which narrative appears.  So, for example, if you have H1 inside the div of resource referenced as part of a sub-section, it would turn into an H4.</t>
+  </si>
+  <si>
+    <t>Lloyd</t>
+  </si>
+  <si>
+    <t>We need to support "narrative only" resources for all resource types, which means that all minOccurs effectively act as 0.  Discussion needed on the best and safest way to do this.</t>
+  </si>
+  <si>
+    <t>Should use the appropriate resource for the type of content (List for allergy lists, problem lists, Observation where appropriate, etc.)  Should only use Other if there's no appropriate resource or if the constraints of the appropriate resource cannot be met (e.g. there's a minOccurs element that can't be populated due to the unavailability of coded data).  Will add guidance to this effect.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,13 +635,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -594,12 +671,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -609,12 +685,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -918,47 +1011,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
-    <col min="6" max="6" width="68.5703125" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="68.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -967,18 +1063,15 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -990,23 +1083,20 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1020,11 +1110,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1043,14 +1133,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1060,14 +1150,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1075,8 +1164,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1085,8 +1174,6 @@
       <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>64</v>
       </c>
@@ -1094,154 +1181,128 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="285" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
+    <row r="9" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2.4</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>77</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>75</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+        <v>102</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="7" t="s">
+    <row r="15" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>124</v>
+    </row>
+    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1251,111 +1312,133 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="30.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="70.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="68.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="50.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="33.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="30.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="70.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="68.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="50.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="39.28515625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="J1" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="I2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>110</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="I3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>565</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="285" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="J4" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1368,15 +1451,18 @@
       <c r="G5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="270" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="H5" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1392,14 +1478,17 @@
       <c r="G6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="J6" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1415,11 +1504,17 @@
       <c r="G7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="I7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>62</v>
       </c>
@@ -1431,12 +1526,18 @@
       <c r="G8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="I8" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1450,31 +1551,88 @@
       <c r="G9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="J9" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="E10" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="G10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>118</v>
+      <c r="J10" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="1">
+        <v>207</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J12"/>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" location="presentation"/>
   </hyperlinks>
@@ -1484,10 +1642,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,17 +1703,12 @@
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/ballots/2013-09 DSTU/QA/FMG QA Summary - outstanding issues.xlsx
+++ b/ballots/2013-09 DSTU/QA/FMG QA Summary - outstanding issues.xlsx
@@ -580,7 +580,7 @@
     <t>We need to support "narrative only" resources for all resource types, which means that all minOccurs effectively act as 0.  Discussion needed on the best and safest way to do this.</t>
   </si>
   <si>
-    <t>Should use the appropriate resource for the type of content (List for allergy lists, problem lists, Observation where appropriate, etc.)  Should only use Other if there's no appropriate resource or if the constraints of the appropriate resource cannot be met (e.g. there's a minOccurs element that can't be populated due to the unavailability of coded data).  Will add guidance to this effect.</t>
+    <t>Should use the appropriate resource for the type of content (List for allergy lists, problem lists, Observation where appropriate, etc.)  Should only use Other (yuck!) if there's no appropriate resource or if the constraints of the appropriate resource cannot be met (e.g. there's a minOccurs element that can't be populated due to the unavailability of coded data).  Will add guidance to this effect.</t>
   </si>
 </sst>
 </file>
@@ -1312,11 +1312,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,7 +1363,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1385,7 +1386,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -1411,7 +1412,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1514,7 +1515,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>62</v>
       </c>
@@ -1536,7 +1537,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>110</v>
       </c>
@@ -1558,7 +1559,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>110</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>137</v>
       </c>
@@ -1632,7 +1633,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J12"/>
+  <autoFilter ref="A1:J12">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="Thur Q3 SD"/>
+        <filter val="Thur Q3 SD (short)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" location="presentation"/>
   </hyperlinks>

--- a/ballots/2013-09 DSTU/QA/FMG QA Summary - outstanding issues.xlsx
+++ b/ballots/2013-09 DSTU/QA/FMG QA Summary - outstanding issues.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1605" windowWidth="29040" windowHeight="15405" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="1605" windowWidth="29040" windowHeight="15405" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="For future consideration" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="141">
   <si>
     <t xml:space="preserve"> Basic Messaging Assumptions</t>
   </si>
@@ -308,12 +308,6 @@
     <t>The "values" element does not exist (anymore)</t>
   </si>
   <si>
-    <t>todo: fill out.</t>
-  </si>
-  <si>
-    <t>I think this is now done in the extensibility-examples page (in 1.11.6.1.1.5 to be exactly), so could refer to that.</t>
-  </si>
-  <si>
     <t>extensibility-examples.html</t>
   </si>
   <si>
@@ -369,51 +363,6 @@
     <t>It's not allowed as a data type, but it's a valid point. Revisit this in the future</t>
   </si>
   <si>
-    <r>
-      <t>TypeRef.code is from a fixed codeset, yet the profile example (profiles-resources.xml.html) sometimes uses </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>`ResourceReference(A|B|C)`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> to specify the kind of ResourceReference allowed. This cannot be correct (since only </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>`ResourceReference`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> is allowed as a code), and the allowed resource types should be split apart. </t>
-    </r>
-  </si>
-  <si>
     <t>The example lipid profile and the ones below this profile are rendered as raw XML whereas the first few are rendered in HTML (showing formatted XML) </t>
   </si>
   <si>
@@ -444,17 +393,6 @@
     <t>Much more complicated that it sounds unless we want to require UCUM. Not broken, so defer to future</t>
   </si>
   <si>
-    <t xml:space="preserve">There is a problem in the graphical rendering of resources.  The data within the box for a resource wraps incorrectly if the Resourc(A|B|C|D) causes a line wrap.  In particular, the first line ends in "|)" and then the next, indented line ends in ")"  There should be no ")" at end of first line.  I noticed this in:
-DocumentManifest (Resource)
-masterIdentifier : Identifier 1..1
-identifier : Identifier 0..*
-subject : Resource(Patient|Practitioner|Group|)
-       Device) 1..*
-recipient : Resource(Patient|Practitioner|)
-       Organization) 0..*
-type : CodeableConcept 0..1 </t>
-  </si>
-  <si>
     <t>Composition.instant should be a dateTime.  When converting from CDA, most will be dates, not timestamps.</t>
   </si>
   <si>
@@ -471,9 +409,6 @@
   </si>
   <si>
     <t>I agree. Can have a fax and a phone</t>
-  </si>
-  <si>
-    <t>Need to clarify that Document/_search always returns a feed of atom feeds (and ensure that the atom description (XML and JSON) and schema support this.</t>
   </si>
   <si>
     <t>If the value of the parameter is a number (potentially with &lt; etc), it is a search on the value (todo: units, canonical?)</t>
@@ -1217,16 +1152,16 @@
         <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1234,13 +1169,13 @@
         <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -1248,16 +1183,16 @@
         <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1265,44 +1200,44 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1315,7 +1250,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
@@ -1357,10 +1292,10 @@
         <v>42</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -1380,10 +1315,10 @@
         <v>43</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="150" hidden="1" x14ac:dyDescent="0.25">
@@ -1406,10 +1341,10 @@
         <v>44</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.25">
@@ -1426,13 +1361,13 @@
         <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="330" x14ac:dyDescent="0.25">
@@ -1453,13 +1388,13 @@
         <v>49</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="270" x14ac:dyDescent="0.25">
@@ -1483,10 +1418,10 @@
         <v>54</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="165" hidden="1" x14ac:dyDescent="0.25">
@@ -1509,10 +1444,10 @@
         <v>61</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="165" x14ac:dyDescent="0.25">
@@ -1531,55 +1466,55 @@
         <v>71</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
@@ -1605,31 +1540,31 @@
         <v>70</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B12" s="1">
         <v>207</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1650,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,38 +1620,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/ballots/2013-09 DSTU/QA/FMG QA Summary - outstanding issues.xlsx
+++ b/ballots/2013-09 DSTU/QA/FMG QA Summary - outstanding issues.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="155">
   <si>
     <t xml:space="preserve"> Basic Messaging Assumptions</t>
   </si>
@@ -269,9 +269,6 @@
   </si>
   <si>
     <t>Don't know - need to find out whether any aren't</t>
-  </si>
-  <si>
-    <t>Remove design notes page (at least ones that say "todo"</t>
   </si>
   <si>
     <t>Fix up slicing example that still uses Observation.component</t>
@@ -516,6 +513,51 @@
   </si>
   <si>
     <t>Should use the appropriate resource for the type of content (List for allergy lists, problem lists, Observation where appropriate, etc.)  Should only use Other (yuck!) if there's no appropriate resource or if the constraints of the appropriate resource cannot be met (e.g. there's a minOccurs element that can't be populated due to the unavailability of coded data).  Will add guidance to this effect.</t>
+  </si>
+  <si>
+    <t>Make agreed changes to Observation and DiagnosticReport, including updating descriptions</t>
+  </si>
+  <si>
+    <t>Get examples and profiles updated to reflect change in Observation approach</t>
+  </si>
+  <si>
+    <t>Split the handling of Query and SearchParam so definition occurs in Profile</t>
+  </si>
+  <si>
+    <t>Update the spreadsheet extraction process so that the query parameter info shows up in the Profile.xml files</t>
+  </si>
+  <si>
+    <t>Modify the documentation of parameters to include a "quantity" type</t>
+  </si>
+  <si>
+    <t>Add new translation elements to Conformance under SearchParam</t>
+  </si>
+  <si>
+    <t>Update list of contributors with QA folks and connectathon participants from this round</t>
+  </si>
+  <si>
+    <t>Finalize links in DSTU blurb - including pointer to development release</t>
+  </si>
+  <si>
+    <t>Error running build: multiple types (ResourceReference, ResourceReference) @ /f:AdverseReaction/f:recorder</t>
+  </si>
+  <si>
+    <t>Grahame</t>
+  </si>
+  <si>
+    <t>Lloyd?</t>
+  </si>
+  <si>
+    <t>Grahame?</t>
+  </si>
+  <si>
+    <t>Document agreed changes to _include</t>
+  </si>
+  <si>
+    <t>Add guidance on how to use tags to identify versions for DSTU content?</t>
+  </si>
+  <si>
+    <t>Ewout</t>
   </si>
 </sst>
 </file>
@@ -606,7 +648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -619,9 +661,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -643,6 +682,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -966,25 +1014,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1029,7 +1077,7 @@
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1049,7 +1097,7 @@
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1152,16 +1200,16 @@
         <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1169,13 +1217,13 @@
         <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -1183,16 +1231,16 @@
         <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1200,44 +1248,44 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>139</v>
+      <c r="E16" s="11" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1267,35 +1315,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>129</v>
+      <c r="I1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -1315,10 +1363,10 @@
         <v>43</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="150" hidden="1" x14ac:dyDescent="0.25">
@@ -1341,10 +1389,10 @@
         <v>44</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.25">
@@ -1361,13 +1409,13 @@
         <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="330" x14ac:dyDescent="0.25">
@@ -1387,14 +1435,14 @@
       <c r="G5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>137</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="270" x14ac:dyDescent="0.25">
@@ -1418,10 +1466,10 @@
         <v>54</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="165" hidden="1" x14ac:dyDescent="0.25">
@@ -1444,10 +1492,10 @@
         <v>61</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="165" x14ac:dyDescent="0.25">
@@ -1465,56 +1513,56 @@
       <c r="H8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>140</v>
+      <c r="I8" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
@@ -1540,31 +1588,31 @@
         <v>70</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" s="1">
         <v>207</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1585,49 +1633,135 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="84.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" customWidth="1"/>
-    <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="84.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="43" style="12" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>112</v>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/ballots/2013-09 DSTU/QA/FMG QA Summary - outstanding issues.xlsx
+++ b/ballots/2013-09 DSTU/QA/FMG QA Summary - outstanding issues.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="157">
   <si>
     <t xml:space="preserve"> Basic Messaging Assumptions</t>
   </si>
@@ -558,6 +558,12 @@
   </si>
   <si>
     <t>Ewout</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Defer</t>
   </si>
 </sst>
 </file>
@@ -648,7 +654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -691,6 +697,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1635,7 +1644,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1720,24 +1731,24 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>137</v>
+      <c r="A9" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>137</v>
+      <c r="A10" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>137</v>
+      <c r="A11" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>147</v>
@@ -1766,5 +1777,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ballots/2013-09 DSTU/QA/FMG QA Summary - outstanding issues.xlsx
+++ b/ballots/2013-09 DSTU/QA/FMG QA Summary - outstanding issues.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="163">
   <si>
     <t xml:space="preserve"> Basic Messaging Assumptions</t>
   </si>
@@ -548,9 +548,6 @@
     <t>Lloyd?</t>
   </si>
   <si>
-    <t>Grahame?</t>
-  </si>
-  <si>
     <t>Document agreed changes to _include</t>
   </si>
   <si>
@@ -564,13 +561,34 @@
   </si>
   <si>
     <t>Defer</t>
+  </si>
+  <si>
+    <t>fix epub</t>
+  </si>
+  <si>
+    <t>check resource pages are ok</t>
+  </si>
+  <si>
+    <t>update version to final version</t>
+  </si>
+  <si>
+    <t>check archive of dstu ballot</t>
+  </si>
+  <si>
+    <t>check dstu documentation</t>
+  </si>
+  <si>
+    <t>figure out what to do about narrative that is missing in examples</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,6 +644,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -654,7 +685,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -695,11 +726,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1642,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,10 +1694,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1686,10 +1720,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1723,56 +1757,89 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/ballots/2013-09 DSTU/QA/FMG QA Summary - outstanding issues.xlsx
+++ b/ballots/2013-09 DSTU/QA/FMG QA Summary - outstanding issues.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="165">
   <si>
     <t xml:space="preserve"> Basic Messaging Assumptions</t>
   </si>
@@ -542,21 +542,12 @@
     <t>Error running build: multiple types (ResourceReference, ResourceReference) @ /f:AdverseReaction/f:recorder</t>
   </si>
   <si>
-    <t>Grahame</t>
-  </si>
-  <si>
-    <t>Lloyd?</t>
-  </si>
-  <si>
     <t>Document agreed changes to _include</t>
   </si>
   <si>
     <t>Add guidance on how to use tags to identify versions for DSTU content?</t>
   </si>
   <si>
-    <t>Ewout</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -582,13 +573,28 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>done?</t>
+  </si>
+  <si>
+    <t>profile redirects</t>
+  </si>
+  <si>
+    <t>Not Done - wrong</t>
+  </si>
+  <si>
+    <t>json publishing issues</t>
+  </si>
+  <si>
+    <t>not for spec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -657,6 +663,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -685,7 +705,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -723,9 +743,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -734,6 +751,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1676,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,18 +1726,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1720,126 +1752,163 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="15" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+      <c r="B21" s="14" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
